--- a/examples/Power_WeightsK.xlsx
+++ b/examples/Power_WeightsK.xlsx
@@ -614,7 +614,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.0</t>
+          <t>v0.1.1</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Representative hour in rp for this hour</t>
+          <t>Representative hour within rp</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.0</t>
+          <t>v0.1.1</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Representative hour in rp for this hour</t>
+          <t>Representative hour within rp</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">

--- a/examples/Power_WeightsK.xlsx
+++ b/examples/Power_WeightsK.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <name val="Calibri"/>
@@ -133,7 +135,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -614,7 +616,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.1</t>
+          <t>v0.1.2</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1359,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.1</t>
+          <t>v0.1.2</t>
         </is>
       </c>
     </row>

--- a/examples/Power_WeightsK.xlsx
+++ b/examples/Power_WeightsK.xlsx
@@ -589,9 +589,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.5709375" customWidth="1" min="1" max="1"/>
-    <col width="20.2809375" customWidth="1" min="2" max="2"/>
-    <col width="19.7109375" customWidth="1" min="3" max="3"/>
-    <col width="31.8509375" customWidth="1" min="4" max="4"/>
+    <col width="19.7109375" customWidth="1" min="2" max="2"/>
+    <col width="15.7109375" customWidth="1" min="3" max="3"/>
+    <col width="31.7109375" customWidth="1" min="4" max="4"/>
     <col width="24.5709375" customWidth="1" min="5" max="5"/>
     <col width="24.5709375" customWidth="1" min="6" max="6"/>
   </cols>
@@ -616,7 +616,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.2</t>
+          <t>v0.1.3</t>
         </is>
       </c>
     </row>
@@ -1332,9 +1332,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.5709375" customWidth="1" min="1" max="1"/>
-    <col width="20.2809375" customWidth="1" min="2" max="2"/>
-    <col width="19.7109375" customWidth="1" min="3" max="3"/>
-    <col width="31.8509375" customWidth="1" min="4" max="4"/>
+    <col width="19.7109375" customWidth="1" min="2" max="2"/>
+    <col width="15.7109375" customWidth="1" min="3" max="3"/>
+    <col width="31.7109375" customWidth="1" min="4" max="4"/>
     <col width="24.5709375" customWidth="1" min="5" max="5"/>
     <col width="24.5709375" customWidth="1" min="6" max="6"/>
   </cols>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.2</t>
+          <t>v0.1.3</t>
         </is>
       </c>
     </row>
